--- a/pred_ohlcv/54_21/2019-10-19 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 LAMB ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>526249.703</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>524749.703</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>534281.1087999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -808,7 +808,7 @@
         <v>512127.7854999999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>510627.7854999999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>512280.9155999999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>512543.9155999999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>512543.9155999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>514043.9155999999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>514543.9155999999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>513476.9046</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>516129.7985</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>514671.5554</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>498671.5554</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>499516.5983</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>592375.227</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>592375.227</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>592768.6614</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>522837.9613</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>405336.3865</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>351038.3446</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>343284.2692999999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>343301.0862999999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>343301.0862999999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>342801.0862999999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>342801.0862999999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>325500.3323999999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>312300.3323999999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>172228.1731435529</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>168728.1731435529</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>187628.1731435529</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>187606.1731435529</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>173697.9750435529</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>173708.9750435529</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>174708.9750435529</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>174708.9750435529</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>174708.9750435529</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>174697.9750435529</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>174697.9750435529</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>172485.1886435529</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>172496.1886435529</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>172496.1886435529</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>47994.97814355291</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>47494.97814355291</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>43811.28934355291</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>43811.28934355291</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>28894.55544355291</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-14571.01205644709</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-178463.6698564471</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-316978.2452469233</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-317068.2452469233</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-324464.2934469233</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-338818.4204374278</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-330557.4204374278</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-324480.4204374278</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-331548.6262374278</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-344558.6262374278</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-348176.0533374277</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-340009.4511374277</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-340019.4511374277</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-327882.4365374277</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-316014.9435374277</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-320152.6805374277</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-320152.6805374277</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-320152.6805374277</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-320162.6805374277</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-320192.6805374277</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-320182.6805374277</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-323192.6805374277</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-323202.6805374277</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-323202.6805374277</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-337913.5114374277</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-338054.7312374277</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-338044.7312374277</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-338044.7312374277</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-338054.7312374277</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-308065.9896374277</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-308055.9896374277</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-316729.3471374277</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-316719.3471374277</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-326316.3286374277</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-326316.3286374277</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-270623.0367374276</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-270623.0367374276</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-209829.8976374276</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-209839.8976374276</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-209839.8976374276</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-307682.5869570649</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-307632.5869570649</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-307632.5869570649</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-307632.5869570649</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-300832.5869570649</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-301778.1582570649</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-304968.1582570649</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-304958.1582570649</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-304948.1582570649</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-308948.1582570649</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-308908.1582570649</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-307884.9142570649</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-550581.5527570649</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-550571.5527570649</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-779463.5042570649</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-775163.5425570649</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-822600.0981570649</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-827610.0981570649</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-827610.0981570649</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-839810.0981570649</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-837225.6455570649</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-838547.7300570649</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-838537.7300570649</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-838537.7300570649</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-838537.7300570649</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-842661.3657570649</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-841676.2502570649</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-841676.2502570649</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-875076.0155570649</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-875066.0155570649</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-875987.7293570649</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-875977.7293570649</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-877090.9702570649</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-875314.9702570649</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-878618.8647570648</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-878618.8647570648</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 LAMB ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>520595.2949</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>526249.703</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>524749.703</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>534281.1087999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -808,7 +808,7 @@
         <v>512127.7854999999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>510627.7854999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>512280.9155999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>512543.9155999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>512543.9155999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>514043.9155999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>514543.9155999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>513476.9046</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>516129.7985</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>514671.5554</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>499516.5983</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>592375.227</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>592375.227</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>592768.6614</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>522837.9613</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>405336.3865</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>351038.3446</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>343284.2692999999</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>343301.0862999999</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>343301.0862999999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>342801.0862999999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>342801.0862999999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>325500.3323999999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>312300.3323999999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>172228.1731435529</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>168728.1731435529</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>187628.1731435529</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>187606.1731435529</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>173697.9750435529</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>173708.9750435529</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>174708.9750435529</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>174708.9750435529</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>174708.9750435529</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>174697.9750435529</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>174697.9750435529</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>172485.1886435529</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>172496.1886435529</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>172496.1886435529</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>47994.97814355291</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>47494.97814355291</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>43811.28934355291</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>43811.28934355291</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>28894.55544355291</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-14571.01205644709</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-178463.6698564471</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-316978.2452469233</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-317068.2452469233</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-324464.2934469233</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-338818.4204374278</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-330557.4204374278</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-324480.4204374278</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-331548.6262374278</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-344558.6262374278</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-348176.0533374277</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-340009.4511374277</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-340019.4511374277</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-327882.4365374277</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-316014.9435374277</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-320152.6805374277</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-320152.6805374277</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-320152.6805374277</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-320162.6805374277</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-320192.6805374277</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-320182.6805374277</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-323192.6805374277</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-323202.6805374277</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-323202.6805374277</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-337913.5114374277</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-338054.7312374277</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-338044.7312374277</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-338044.7312374277</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-338054.7312374277</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-308065.9896374277</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-308055.9896374277</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-316729.3471374277</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-316719.3471374277</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-326316.3286374277</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-326316.3286374277</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-270623.0367374276</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-270623.0367374276</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-209829.8976374276</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-209839.8976374276</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-209839.8976374276</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-307682.5869570649</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-307632.5869570649</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-307632.5869570649</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-307632.5869570649</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-300832.5869570649</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-301778.1582570649</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-304968.1582570649</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-304958.1582570649</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-304948.1582570649</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-308948.1582570649</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-308908.1582570649</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-307884.9142570649</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-550581.5527570649</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-550571.5527570649</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-779463.5042570649</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-775163.5425570649</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-822600.0981570649</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-827610.0981570649</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-838537.7300570649</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-838537.7300570649</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-838537.7300570649</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-842661.3657570649</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-841676.2502570649</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-841676.2502570649</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-875076.0155570649</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-875066.0155570649</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-875987.7293570649</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-875977.7293570649</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-877090.9702570649</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-875314.9702570649</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-878618.8647570648</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-878618.8647570648</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
